--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Parker.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -983,12 +983,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2959,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3085,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3509,12 +3509,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3551,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3803,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3929,12 +3929,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4097,12 +4097,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4349,12 +4349,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4983,12 +4983,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5663,12 +5663,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5705,12 +5705,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6755,12 +6755,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6923,12 +6923,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7007,12 +7007,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7175,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7301,12 +7301,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7557,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9123,12 +9123,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9165,12 +9165,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9207,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9249,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9459,12 +9459,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9501,12 +9501,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9589,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9631,12 +9631,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10437,12 +10437,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10521,12 +10521,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10605,12 +10605,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10689,12 +10689,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11781,12 +11781,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12121,12 +12121,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12163,12 +12163,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12289,12 +12289,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12793,12 +12793,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13297,12 +13297,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13717,12 +13717,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14011,12 +14011,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14523,12 +14523,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14775,12 +14775,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14985,12 +14985,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15111,12 +15111,12 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15363,12 +15363,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15531,12 +15531,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15615,12 +15615,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15699,12 +15699,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15909,12 +15909,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15951,12 +15951,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16035,12 +16035,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16287,12 +16287,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16371,12 +16371,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16413,12 +16413,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16455,12 +16455,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17001,12 +17001,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17299,12 +17299,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17467,12 +17467,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17593,12 +17593,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18941,12 +18941,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19239,12 +19239,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19281,12 +19281,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19323,12 +19323,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19449,12 +19449,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19491,12 +19491,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19533,12 +19533,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19995,12 +19995,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20079,12 +20079,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20331,12 +20331,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20751,12 +20751,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20793,12 +20793,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21171,12 +21171,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21591,12 +21591,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21633,12 +21633,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21927,12 +21927,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22431,12 +22431,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23149,12 +23149,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23825,12 +23825,12 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24119,12 +24119,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24161,12 +24161,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24245,12 +24245,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24287,12 +24287,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24329,12 +24329,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24501,12 +24501,12 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24543,12 +24543,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25429,12 +25429,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25471,12 +25471,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25811,12 +25811,12 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26193,12 +26193,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26403,12 +26403,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26743,12 +26743,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27583,12 +27583,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27877,12 +27877,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28175,12 +28175,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28385,12 +28385,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28427,12 +28427,12 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28469,12 +28469,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28557,12 +28557,12 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29145,12 +29145,12 @@
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29187,12 +29187,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29229,12 +29229,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29271,12 +29271,12 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29867,12 +29867,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30245,12 +30245,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30539,12 +30539,12 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30875,12 +30875,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31043,12 +31043,12 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31631,12 +31631,12 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32135,12 +32135,12 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32471,12 +32471,12 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32723,12 +32723,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33479,12 +33479,12 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
